--- a/Configs/Strings.xlsx
+++ b/Configs/Strings.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>导出标志</t>
   </si>
@@ -63,6 +63,30 @@
   </si>
   <si>
     <t>PasswordTip</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>登录</t>
   </si>
 </sst>
 </file>
@@ -993,13 +1017,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="44.875" customWidth="1"/>
@@ -1070,6 +1094,50 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Strings.xlsx
+++ b/Configs/Strings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="10725" windowHeight="15240"/>
   </bookViews>
   <sheets>
     <sheet name="Strings" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>导出标志</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>登录</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>取消</t>
   </si>
 </sst>
 </file>
@@ -1017,10 +1029,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1138,6 +1150,28 @@
         <v>19</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Strings.xlsx
+++ b/Configs/Strings.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>导出标志</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>取消</t>
+  </si>
+  <si>
+    <t>GoBack</t>
+  </si>
+  <si>
+    <t>返回</t>
   </si>
 </sst>
 </file>
@@ -1029,10 +1035,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1172,6 +1178,17 @@
         <v>23</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
